--- a/1-Define/complaint report/annex_1_complaint_report.xlsx
+++ b/1-Define/complaint report/annex_1_complaint_report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dani_\OneDrive\Documentos\LeanSS\Python\1-Define\complaint report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{346D6ACB-4EDA-43C5-8DB5-E7A3F6E301B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4EF40DF-126A-45A2-8846-D7E6B87E64AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10590" yWindow="21480" windowWidth="29040" windowHeight="16440" xr2:uid="{5A4324A1-96A4-4B54-A544-8E4028C7C874}"/>
   </bookViews>
@@ -802,7 +802,7 @@
   <dimension ref="A1:G111"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16:F68"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/1-Define/complaint report/annex_1_complaint_report.xlsx
+++ b/1-Define/complaint report/annex_1_complaint_report.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dani_\OneDrive\Documentos\LeanSS\Python\1-Define\complaint report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniell/Documents/LeanSS/1-Define/Complaint report/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4EF40DF-126A-45A2-8846-D7E6B87E64AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47AE0637-7090-5745-B3A1-E5D18BC47404}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10590" yWindow="21480" windowWidth="29040" windowHeight="16440" xr2:uid="{5A4324A1-96A4-4B54-A544-8E4028C7C874}"/>
+    <workbookView xWindow="18900" yWindow="29560" windowWidth="29040" windowHeight="16440" xr2:uid="{5A4324A1-96A4-4B54-A544-8E4028C7C874}"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte Atención cliente" sheetId="2" r:id="rId1"/>
@@ -37,10 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="94">
-  <si>
-    <t>Medidas</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="95">
   <si>
     <t>talk_time</t>
   </si>
@@ -60,9 +57,6 @@
     <t>email_subject</t>
   </si>
   <si>
-    <t>Entregas</t>
-  </si>
-  <si>
     <t>1A39B286DA6D415E84D1F9159236CB75</t>
   </si>
   <si>
@@ -288,54 +282,61 @@
     <t>No disponible</t>
   </si>
   <si>
-    <t>Malas 
-medidas</t>
-  </si>
-  <si>
-    <t>Medidas 
-incorrectas</t>
-  </si>
-  <si>
-    <t>Cantidad 
+    <t>Quantity 
 no 
-adecuada</t>
-  </si>
-  <si>
-    <t>Densidad 
-incorrecta</t>
-  </si>
-  <si>
-    <t>Densidad 
+adequate</t>
+  </si>
+  <si>
+    <t>Density 
+incorrect</t>
+  </si>
+  <si>
+    <t>Incorrect density</t>
+  </si>
+  <si>
+    <t>Delivery 
+late</t>
+  </si>
+  <si>
+    <t>Deliveries</t>
+  </si>
+  <si>
+    <t>Deliveries 
+not on 
+on time</t>
+  </si>
+  <si>
+    <t>Deliveries 
+late</t>
+  </si>
+  <si>
+    <t>Non-compliance 
+in the 
+delivery</t>
+  </si>
+  <si>
+    <t>Wrong 
+measures</t>
+  </si>
+  <si>
+    <t>Measures</t>
+  </si>
+  <si>
+    <t>Measures 
+incorrect</t>
+  </si>
+  <si>
+    <t>Measures 
 no 
-correcta</t>
-  </si>
-  <si>
-    <t>Entrega 
-tardía</t>
-  </si>
-  <si>
-    <t>Entregas 
-no a 
-tiempo</t>
-  </si>
-  <si>
-    <t>Entregas 
-tarde</t>
-  </si>
-  <si>
-    <t>Entregas 
-tardia</t>
-  </si>
-  <si>
-    <t>Incumplimiento 
-en la 
-entrega</t>
-  </si>
-  <si>
-    <t>Medidas 
-no 
-cumplen 
-especificaciones</t>
+comply 
+specifications</t>
+  </si>
+  <si>
+    <t>Not available</t>
+  </si>
+  <si>
+    <t>Late 
+delivery</t>
   </si>
 </sst>
 </file>
@@ -802,44 +803,44 @@
   <dimension ref="A1:G111"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="11.42578125" style="1"/>
-    <col min="3" max="3" width="25.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="35.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="42.28515625" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="11.42578125" style="1"/>
+    <col min="1" max="2" width="11.5" style="1"/>
+    <col min="3" max="3" width="25.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.1640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="35.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="42.33203125" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="4" customFormat="1" ht="28.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="4" customFormat="1" ht="28.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="D1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>6</v>
-      </c>
       <c r="F1" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="33" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>913</v>
       </c>
@@ -847,22 +848,22 @@
         <v>1012</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>328</v>
       </c>
@@ -870,22 +871,22 @@
         <v>556</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>413</v>
       </c>
@@ -893,22 +894,22 @@
         <v>779</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>140</v>
       </c>
@@ -916,22 +917,22 @@
         <v>292</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>185</v>
       </c>
@@ -939,22 +940,22 @@
         <v>249</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>556</v>
       </c>
@@ -962,22 +963,22 @@
         <v>675</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>214</v>
       </c>
@@ -985,22 +986,22 @@
         <v>291</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>110</v>
       </c>
@@ -1008,22 +1009,22 @@
         <v>187</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>213</v>
       </c>
@@ -1031,22 +1032,22 @@
         <v>269</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>440</v>
       </c>
@@ -1054,22 +1055,22 @@
         <v>519</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>125</v>
       </c>
@@ -1077,22 +1078,22 @@
         <v>278</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>106</v>
       </c>
@@ -1100,22 +1101,22 @@
         <v>192</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>237</v>
       </c>
@@ -1123,22 +1124,22 @@
         <v>439</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>415</v>
       </c>
@@ -1146,22 +1147,22 @@
         <v>518</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>286</v>
       </c>
@@ -1169,22 +1170,22 @@
         <v>551</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>242</v>
       </c>
@@ -1192,22 +1193,22 @@
         <v>314</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>213</v>
       </c>
@@ -1215,22 +1216,22 @@
         <v>293</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>92</v>
       </c>
@@ -1238,22 +1239,22 @@
         <v>167</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>178</v>
       </c>
@@ -1261,22 +1262,22 @@
         <v>302</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>417</v>
       </c>
@@ -1284,22 +1285,22 @@
         <v>506</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>76</v>
       </c>
@@ -1307,22 +1308,22 @@
         <v>186</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>157</v>
       </c>
@@ -1330,22 +1331,22 @@
         <v>350</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>161</v>
       </c>
@@ -1353,22 +1354,22 @@
         <v>235</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>343</v>
       </c>
@@ -1376,22 +1377,22 @@
         <v>418</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D25" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="E25" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>85</v>
-      </c>
       <c r="G25" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>878</v>
       </c>
@@ -1399,22 +1400,22 @@
         <v>902</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>159</v>
       </c>
@@ -1422,22 +1423,22 @@
         <v>218</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>525</v>
       </c>
@@ -1445,22 +1446,22 @@
         <v>591</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>213</v>
       </c>
@@ -1468,22 +1469,22 @@
         <v>594</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>58</v>
       </c>
@@ -1491,22 +1492,22 @@
         <v>135</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>421</v>
       </c>
@@ -1514,22 +1515,22 @@
         <v>493</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>509</v>
       </c>
@@ -1537,22 +1538,22 @@
         <v>593</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>344</v>
       </c>
@@ -1560,22 +1561,22 @@
         <v>413</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>99</v>
       </c>
@@ -1583,22 +1584,22 @@
         <v>172</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>198</v>
       </c>
@@ -1606,22 +1607,22 @@
         <v>233</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>78</v>
       </c>
@@ -1629,22 +1630,22 @@
         <v>215</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>303</v>
       </c>
@@ -1652,22 +1653,22 @@
         <v>381</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>332</v>
       </c>
@@ -1675,22 +1676,22 @@
         <v>450</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>69</v>
       </c>
@@ -1698,22 +1699,22 @@
         <v>182</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>224</v>
       </c>
@@ -1721,22 +1722,22 @@
         <v>289</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>513</v>
       </c>
@@ -1744,22 +1745,22 @@
         <v>570</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>57</v>
       </c>
@@ -1767,22 +1768,22 @@
         <v>223</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>440</v>
       </c>
@@ -1790,22 +1791,22 @@
         <v>625</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>153</v>
       </c>
@@ -1813,22 +1814,22 @@
         <v>237</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>331</v>
       </c>
@@ -1836,22 +1837,22 @@
         <v>413</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E45" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="F45" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="F45" s="7" t="s">
-        <v>86</v>
-      </c>
       <c r="G45" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>260</v>
       </c>
@@ -1859,22 +1860,22 @@
         <v>599</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>197</v>
       </c>
@@ -1882,22 +1883,22 @@
         <v>394</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>345</v>
       </c>
@@ -1905,22 +1906,22 @@
         <v>731</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>152</v>
       </c>
@@ -1928,22 +1929,22 @@
         <v>287</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>205</v>
       </c>
@@ -1951,22 +1952,22 @@
         <v>299</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>538</v>
       </c>
@@ -1974,22 +1975,22 @@
         <v>624</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <v>86</v>
       </c>
@@ -1997,22 +1998,22 @@
         <v>141</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <v>720</v>
       </c>
@@ -2020,22 +2021,22 @@
         <v>846</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
         <v>267</v>
       </c>
@@ -2043,22 +2044,22 @@
         <v>384</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
         <v>240</v>
       </c>
@@ -2066,22 +2067,22 @@
         <v>317</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
         <v>139</v>
       </c>
@@ -2089,22 +2090,22 @@
         <v>200</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
         <v>172</v>
       </c>
@@ -2112,22 +2113,22 @@
         <v>254</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
         <v>286</v>
       </c>
@@ -2135,22 +2136,22 @@
         <v>390</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
         <v>395</v>
       </c>
@@ -2158,22 +2159,22 @@
         <v>507</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
         <v>460</v>
       </c>
@@ -2181,22 +2182,22 @@
         <v>576</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
         <v>395</v>
       </c>
@@ -2204,22 +2205,22 @@
         <v>501</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E61" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="F61" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="F61" s="7" t="s">
-        <v>86</v>
-      </c>
       <c r="G61" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
         <v>264</v>
       </c>
@@ -2227,22 +2228,22 @@
         <v>310</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
         <v>139</v>
       </c>
@@ -2250,22 +2251,22 @@
         <v>214</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
         <v>223</v>
       </c>
@@ -2273,22 +2274,22 @@
         <v>289</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
         <v>313</v>
       </c>
@@ -2296,22 +2297,22 @@
         <v>402</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
         <v>101</v>
       </c>
@@ -2319,22 +2320,22 @@
         <v>180</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
         <v>734</v>
       </c>
@@ -2342,22 +2343,22 @@
         <v>913</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
         <v>718</v>
       </c>
@@ -2365,22 +2366,22 @@
         <v>839</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E68" s="6" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
         <v>355</v>
       </c>
@@ -2388,22 +2389,22 @@
         <v>426</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
         <v>99</v>
       </c>
@@ -2411,22 +2412,22 @@
         <v>176</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
         <v>242</v>
       </c>
@@ -2434,22 +2435,22 @@
         <v>368</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
         <v>228</v>
       </c>
@@ -2457,174 +2458,174 @@
         <v>506</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D73" s="5"/>
       <c r="E73" s="5"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D74" s="5"/>
       <c r="E74" s="5"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D75" s="5"/>
       <c r="E75" s="5"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D76" s="5"/>
       <c r="E76" s="5"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D77" s="5"/>
       <c r="E77" s="5"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D78" s="5"/>
       <c r="E78" s="5"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D79" s="5"/>
       <c r="E79" s="5"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D80" s="5"/>
       <c r="E80" s="5"/>
     </row>
-    <row r="81" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D81" s="5"/>
       <c r="E81" s="5"/>
     </row>
-    <row r="82" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D82" s="5"/>
       <c r="E82" s="5"/>
     </row>
-    <row r="83" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D83" s="5"/>
       <c r="E83" s="5"/>
     </row>
-    <row r="84" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D84" s="5"/>
       <c r="E84" s="5"/>
     </row>
-    <row r="85" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D85" s="5"/>
       <c r="E85" s="5"/>
     </row>
-    <row r="86" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D86" s="5"/>
       <c r="E86" s="5"/>
     </row>
-    <row r="87" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D87" s="5"/>
       <c r="E87" s="5"/>
     </row>
-    <row r="88" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D88" s="5"/>
       <c r="E88" s="5"/>
     </row>
-    <row r="89" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D89" s="5"/>
       <c r="E89" s="5"/>
     </row>
-    <row r="90" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D90" s="5"/>
       <c r="E90" s="5"/>
     </row>
-    <row r="91" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D91" s="5"/>
       <c r="E91" s="5"/>
     </row>
-    <row r="92" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D92" s="5"/>
       <c r="E92" s="5"/>
     </row>
-    <row r="93" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D93" s="5"/>
       <c r="E93" s="5"/>
     </row>
-    <row r="94" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D94" s="5"/>
       <c r="E94" s="5"/>
     </row>
-    <row r="95" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D95" s="5"/>
       <c r="E95" s="5"/>
     </row>
-    <row r="96" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D96" s="5"/>
       <c r="E96" s="5"/>
     </row>
-    <row r="97" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D97" s="5"/>
       <c r="E97" s="5"/>
     </row>
-    <row r="98" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D98" s="5"/>
       <c r="E98" s="5"/>
     </row>
-    <row r="99" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D99" s="5"/>
       <c r="E99" s="5"/>
     </row>
-    <row r="100" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D100" s="5"/>
       <c r="E100" s="5"/>
     </row>
-    <row r="101" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D101" s="5"/>
       <c r="E101" s="5"/>
     </row>
-    <row r="102" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D102" s="5"/>
       <c r="E102" s="5"/>
     </row>
-    <row r="103" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D103" s="5"/>
       <c r="E103" s="5"/>
     </row>
-    <row r="104" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D104" s="5"/>
       <c r="E104" s="5"/>
     </row>
-    <row r="105" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D105" s="5"/>
       <c r="E105" s="5"/>
     </row>
-    <row r="106" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D106" s="5"/>
       <c r="E106" s="5"/>
     </row>
-    <row r="107" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D107" s="5"/>
       <c r="E107" s="5"/>
     </row>
-    <row r="108" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D108" s="5"/>
       <c r="E108" s="5"/>
     </row>
-    <row r="109" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D109" s="5"/>
       <c r="E109" s="5"/>
     </row>
-    <row r="110" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D110" s="5"/>
       <c r="E110" s="5"/>
     </row>
-    <row r="111" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D111" s="5"/>
       <c r="E111" s="5"/>
     </row>
